--- a/src/test/resources/excelWorkTimeSupplierTestFile.xlsx
+++ b/src/test/resources/excelWorkTimeSupplierTestFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" state="visible" r:id="rId3"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,9 +1216,7 @@
       <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="n">
-        <v>28.05</v>
-      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1508,27 +1506,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="n">
         <f aca="false">IF(ISNUMBER(C10),Settings!hourly_rate*C10,"")</f>
-        <v>217.3875</v>
+        <v>0</v>
       </c>
       <c r="D11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(D10),Settings!hourly_rate*D10,"")</f>
-        <v>217.3875</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(E10),Settings!hourly_rate*E10,"")</f>
-        <v>231.4125</v>
+        <v>0</v>
       </c>
       <c r="F11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(F10),Settings!hourly_rate*F10,"")</f>
-        <v>196.35</v>
+        <v>0</v>
       </c>
       <c r="G11" s="51" t="n">
         <f aca="false">IF(ISNUMBER(G10),Settings!hourly_rate*G10,"")</f>
-        <v>231.4125</v>
+        <v>0</v>
       </c>
       <c r="H11" s="52" t="n">
         <f aca="false">IF(OR(ISNUMBER(C11), ISNUMBER(D11), ISNUMBER(E11), ISNUMBER(F11)), SUM(C11:G11), "")</f>
-        <v>1093.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1569,7 +1567,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1827,27 +1825,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="n">
         <f aca="false">IF(ISNUMBER(C10),Settings!hourly_rate*C10,"")</f>
-        <v>189.3375</v>
+        <v>0</v>
       </c>
       <c r="D11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(D10),Settings!hourly_rate*D10,"")</f>
-        <v>224.4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(E10),Settings!hourly_rate*E10,"")</f>
-        <v>189.3375</v>
+        <v>0</v>
       </c>
       <c r="F11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(F10),Settings!hourly_rate*F10,"")</f>
-        <v>210.375</v>
+        <v>0</v>
       </c>
       <c r="G11" s="51" t="n">
         <f aca="false">IF(ISNUMBER(G10),Settings!hourly_rate*G10,"")</f>
-        <v>196.35</v>
+        <v>0</v>
       </c>
       <c r="H11" s="52" t="n">
         <f aca="false">IF(OR(ISNUMBER(C11), ISNUMBER(D11), ISNUMBER(E11), ISNUMBER(F11)), SUM(C11:G11), "")</f>
-        <v>1009.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2146,27 +2144,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="n">
         <f aca="false">IF(ISNUMBER(C10),Settings!hourly_rate*C10,"")</f>
-        <v>154.275</v>
+        <v>0</v>
       </c>
       <c r="D11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(D10),Settings!hourly_rate*D10,"")</f>
-        <v>245.4375</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(E10),Settings!hourly_rate*E10,"")</f>
-        <v>196.35</v>
+        <v>0</v>
       </c>
       <c r="F11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(F10),Settings!hourly_rate*F10,"")</f>
-        <v>175.3125</v>
+        <v>0</v>
       </c>
       <c r="G11" s="51" t="n">
         <f aca="false">IF(ISNUMBER(G10),Settings!hourly_rate*G10,"")</f>
-        <v>203.3625</v>
+        <v>0</v>
       </c>
       <c r="H11" s="52" t="n">
         <f aca="false">IF(OR(ISNUMBER(C11), ISNUMBER(D11), ISNUMBER(E11), ISNUMBER(F11)), SUM(C11:G11), "")</f>
-        <v>974.7375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2469,27 +2467,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="n">
         <f aca="false">IF(ISNUMBER(C10),Settings!hourly_rate*C10,"")</f>
-        <v>245.4375</v>
+        <v>0</v>
       </c>
       <c r="D11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(D10),Settings!hourly_rate*D10,"")</f>
-        <v>210.375</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(E10),Settings!hourly_rate*E10,"")</f>
-        <v>217.3875</v>
+        <v>0</v>
       </c>
       <c r="F11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(F10),Settings!hourly_rate*F10,"")</f>
-        <v>224.4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="51" t="n">
         <f aca="false">IF(ISNUMBER(G10),Settings!hourly_rate*G10,"")</f>
-        <v>231.4125</v>
+        <v>0</v>
       </c>
       <c r="H11" s="52" t="n">
         <f aca="false">IF(OR(ISNUMBER(C11), ISNUMBER(D11), ISNUMBER(E11), ISNUMBER(F11)), SUM(C11:G11), "")</f>
-        <v>1129.0125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2547,7 +2545,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2813,27 +2811,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="n">
         <f aca="false">IF(ISNUMBER(C10),Settings!hourly_rate*C10,"")</f>
-        <v>154.275</v>
+        <v>0</v>
       </c>
       <c r="D11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(D10),Settings!hourly_rate*D10,"")</f>
-        <v>231.4125</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(E10),Settings!hourly_rate*E10,"")</f>
-        <v>231.88</v>
+        <v>0</v>
       </c>
       <c r="F11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(F10),Settings!hourly_rate*F10,"")</f>
-        <v>231.88</v>
+        <v>0</v>
       </c>
       <c r="G11" s="51" t="n">
         <f aca="false">IF(ISNUMBER(G10),Settings!hourly_rate*G10,"")</f>
-        <v>203.3625</v>
+        <v>0</v>
       </c>
       <c r="H11" s="52" t="n">
         <f aca="false">IF(OR(ISNUMBER(C11), ISNUMBER(D11), ISNUMBER(E11), ISNUMBER(F11)), SUM(C11:G11), "")</f>
-        <v>1052.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3136,27 +3134,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="n">
         <f aca="false">IF(ISNUMBER(C10),Settings!hourly_rate*C10,"")</f>
-        <v>238.425</v>
+        <v>0</v>
       </c>
       <c r="D11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(D10),Settings!hourly_rate*D10,"")</f>
-        <v>224.4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(E10),Settings!hourly_rate*E10,"")</f>
-        <v>231.4125</v>
+        <v>0</v>
       </c>
       <c r="F11" s="50" t="n">
         <f aca="false">IF(ISNUMBER(F10),Settings!hourly_rate*F10,"")</f>
-        <v>203.3625</v>
+        <v>0</v>
       </c>
       <c r="G11" s="51" t="n">
         <f aca="false">IF(ISNUMBER(G10),Settings!hourly_rate*G10,"")</f>
-        <v>231.4125</v>
+        <v>0</v>
       </c>
       <c r="H11" s="52" t="n">
         <f aca="false">IF(OR(ISNUMBER(C11), ISNUMBER(D11), ISNUMBER(E11), ISNUMBER(F11)), SUM(C11:G11), "")</f>
-        <v>1129.0125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/test/resources/excelWorkTimeSupplierTestFile.xlsx
+++ b/src/test/resources/excelWorkTimeSupplierTestFile.xlsx
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1636,7 +1636,7 @@
         <v>0.652777777777778</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="19"/>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="F4" s="22" t="n">
         <f aca="false">IF(AND(ISNUMBER(F2), ISNUMBER(F3), F3 &gt; F2), F3-F2, IF(AND(ISNUMBER(F2), ISNUMBER(F3)), (F3+day) - F2, ""))</f>
-        <v>0.333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G4" s="22" t="str">
         <f aca="false">IF(AND(ISNUMBER(G2), ISNUMBER(G3), G3 &gt; G2), G3-G2, IF(AND(ISNUMBER(G2), ISNUMBER(G3)), (G3+day) - G2, ""))</f>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H4" s="23" t="n">
         <f aca="false">IF(OR(ISNUMBER(C4), ISNUMBER(D4), ISNUMBER(E4), ISNUMBER(F4), ISNUMBER(G4)), SUM(C4:G4), "")</f>
-        <v>1.29166666666667</v>
+        <v>1.04166666666667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1680,9 @@
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="G5" s="26" t="n">
         <v>0.361111111111111</v>
       </c>
@@ -1693,7 +1695,9 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="n">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G6" s="29" t="n">
         <v>0.673611111111111</v>
       </c>
@@ -1715,9 +1719,9 @@
         <f aca="false">IF(AND(ISNUMBER(E5), ISNUMBER(E6), E6 &gt; E5), E6-E5, IF(AND(ISNUMBER(E5), ISNUMBER(E6)), (E6+day) - E5, ""))</f>
         <v/>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="31" t="n">
         <f aca="false">IF(AND(ISNUMBER(F5), ISNUMBER(F6), F6 &gt; F5), F6-F5, IF(AND(ISNUMBER(F5), ISNUMBER(F6)), (F6+day) - F5, ""))</f>
-        <v/>
+        <v>0.291666666666667</v>
       </c>
       <c r="G7" s="32" t="n">
         <f aca="false">IF(AND(ISNUMBER(G5), ISNUMBER(G6), G6 &gt; G5), G6-G5, IF(AND(ISNUMBER(G5), ISNUMBER(G6)), (G6+day) - G5, ""))</f>
@@ -1725,7 +1729,7 @@
       </c>
       <c r="H7" s="23" t="n">
         <f aca="false">IF(OR(ISNUMBER(C7), ISNUMBER(D7), ISNUMBER(E7), ISNUMBER(F7), ISNUMBER(G7)), SUM(C7:G7), "")</f>
-        <v>0.3125</v>
+        <v>0.604166666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +1751,7 @@
       </c>
       <c r="F8" s="35" t="n">
         <f aca="false">IF(SUM(F4,F7) &gt; 0, SUM(F4,F7)*24, "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="36" t="n">
         <f aca="false">IF(SUM(G4,G7) &gt; 0, SUM(G4,G7)*24, "")</f>
@@ -1755,7 +1759,7 @@
       </c>
       <c r="H8" s="37" t="n">
         <f aca="false">IF(OR(ISNUMBER(C8), ISNUMBER(D8), ISNUMBER(E8), ISNUMBER(F8)), SUM(C8:G8), "")</f>
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,7 +1781,7 @@
       </c>
       <c r="F9" s="40" t="n">
         <f aca="false">IF(ISNUMBER(F8),IF(F8 &gt;= 9, TIME(0,45,0), IF(F8 &gt;= 6, TIME(0,30,0), TIME(0,0,0))), "")</f>
-        <v>0.0208333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="G9" s="41" t="n">
         <f aca="false">IF(ISNUMBER(G8),IF(G8 &gt;= 9, TIME(0,45,0), IF(G8 &gt;= 6, TIME(0,30,0), TIME(0,0,0))), "")</f>
@@ -1785,7 +1789,7 @@
       </c>
       <c r="H9" s="42" t="n">
         <f aca="false">IF(OR(ISNUMBER(C9), ISNUMBER(D9), ISNUMBER(E9), ISNUMBER(F9)), SUM(C9:G9), "")</f>
-        <v>0.104166666666667</v>
+        <v>0.114583333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,7 +1811,7 @@
       </c>
       <c r="F10" s="45" t="n">
         <f aca="false">IF(AND(ISNUMBER(F8),ISNUMBER(F9)), (F8-(F9*24)), "")</f>
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="G10" s="46" t="n">
         <f aca="false">IF(AND(ISNUMBER(G8),ISNUMBER(G9)), (G8-(G9*24)), "")</f>
@@ -1815,7 +1819,7 @@
       </c>
       <c r="H10" s="47" t="n">
         <f aca="false">IF(OR(ISNUMBER(C10), ISNUMBER(D10), ISNUMBER(E10), ISNUMBER(F10)), SUM(C10:G10), "")</f>
-        <v>36</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
